--- a/Days on Market (2).xlsx
+++ b/Days on Market (2).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>DateSelector</t>
   </si>
@@ -55,141 +55,288 @@
     <t>50.000000000</t>
   </si>
   <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>74.500000000</t>
+  </si>
+  <si>
     <t>Single Family Residence</t>
   </si>
   <si>
     <t>41.000000000</t>
   </si>
   <si>
+    <t>Multi-Family</t>
+  </si>
+  <si>
+    <t>15.000000000</t>
+  </si>
+  <si>
+    <t>24.000000000</t>
+  </si>
+  <si>
     <t>56.000000000</t>
   </si>
   <si>
+    <t>72.000000000</t>
+  </si>
+  <si>
     <t>46.000000000</t>
   </si>
   <si>
+    <t>81.000000000</t>
+  </si>
+  <si>
+    <t>53.000000000</t>
+  </si>
+  <si>
+    <t>29.500000000</t>
+  </si>
+  <si>
     <t>40.000000000</t>
   </si>
   <si>
-    <t>53.000000000</t>
+    <t>22.000000000</t>
   </si>
   <si>
     <t>49.000000000</t>
   </si>
   <si>
+    <t>71.000000000</t>
+  </si>
+  <si>
+    <t>23.500000000</t>
+  </si>
+  <si>
     <t>48.000000000</t>
   </si>
   <si>
+    <t>65.500000000</t>
+  </si>
+  <si>
+    <t>66.000000000</t>
+  </si>
+  <si>
     <t>65.000000000</t>
   </si>
   <si>
+    <t>29.000000000</t>
+  </si>
+  <si>
+    <t>77.000000000</t>
+  </si>
+  <si>
+    <t>63.000000000</t>
+  </si>
+  <si>
+    <t>28.000000000</t>
+  </si>
+  <si>
     <t>52.000000000</t>
   </si>
   <si>
-    <t>63.000000000</t>
+    <t>48.500000000</t>
   </si>
   <si>
     <t>64.000000000</t>
   </si>
   <si>
-    <t>48.500000000</t>
+    <t>25.000000000</t>
+  </si>
+  <si>
+    <t>84.000000000</t>
+  </si>
+  <si>
+    <t>60.000000000</t>
   </si>
   <si>
     <t>42.000000000</t>
   </si>
   <si>
+    <t>17.500000000</t>
+  </si>
+  <si>
     <t>68.000000000</t>
   </si>
   <si>
+    <t>75.000000000</t>
+  </si>
+  <si>
+    <t>44.000000000</t>
+  </si>
+  <si>
     <t>57.000000000</t>
   </si>
   <si>
-    <t>44.000000000</t>
+    <t>23.000000000</t>
   </si>
   <si>
     <t>43.000000000</t>
   </si>
   <si>
+    <t>87.000000000</t>
+  </si>
+  <si>
+    <t>35.000000000</t>
+  </si>
+  <si>
     <t>59.000000000</t>
   </si>
   <si>
+    <t>81.500000000</t>
+  </si>
+  <si>
+    <t>26.000000000</t>
+  </si>
+  <si>
+    <t>27.500000000</t>
+  </si>
+  <si>
     <t>54.000000000</t>
   </si>
   <si>
+    <t>85.500000000</t>
+  </si>
+  <si>
+    <t>79.000000000</t>
+  </si>
+  <si>
     <t>56.500000000</t>
   </si>
   <si>
+    <t>62.000000000</t>
+  </si>
+  <si>
     <t>55.000000000</t>
   </si>
   <si>
-    <t>62.000000000</t>
+    <t>36.000000000</t>
+  </si>
+  <si>
+    <t>80.000000000</t>
+  </si>
+  <si>
+    <t>82.000000000</t>
+  </si>
+  <si>
+    <t>30.000000000</t>
   </si>
   <si>
     <t>67.000000000</t>
   </si>
   <si>
-    <t>71.000000000</t>
-  </si>
-  <si>
-    <t>72.000000000</t>
+    <t>97.000000000</t>
+  </si>
+  <si>
+    <t>100.000000000</t>
+  </si>
+  <si>
+    <t>21.000000000</t>
+  </si>
+  <si>
+    <t>86.500000000</t>
+  </si>
+  <si>
+    <t>31.500000000</t>
+  </si>
+  <si>
+    <t>34.000000000</t>
   </si>
   <si>
     <t>51.000000000</t>
   </si>
   <si>
+    <t>27.000000000</t>
+  </si>
+  <si>
+    <t>70.000000000</t>
+  </si>
+  <si>
+    <t>98.000000000</t>
+  </si>
+  <si>
+    <t>93.000000000</t>
+  </si>
+  <si>
     <t>47.000000000</t>
   </si>
   <si>
+    <t>74.000000000</t>
+  </si>
+  <si>
+    <t>93.500000000</t>
+  </si>
+  <si>
+    <t>31.000000000</t>
+  </si>
+  <si>
     <t>51.500000000</t>
   </si>
   <si>
-    <t>60.000000000</t>
+    <t>104.000000000</t>
   </si>
   <si>
     <t>61.000000000</t>
   </si>
   <si>
+    <t>43.500000000</t>
+  </si>
+  <si>
+    <t>115.000000000</t>
+  </si>
+  <si>
+    <t>101.000000000</t>
+  </si>
+  <si>
     <t>38.000000000</t>
   </si>
   <si>
-    <t>30.000000000</t>
+    <t>120.000000000</t>
   </si>
   <si>
     <t>45.000000000</t>
   </si>
   <si>
-    <t>25.000000000</t>
+    <t>21.500000000</t>
   </si>
   <si>
     <t>39.000000000</t>
   </si>
   <si>
+    <t>83.500000000</t>
+  </si>
+  <si>
     <t>20.000000000</t>
   </si>
   <si>
+    <t>20.500000000</t>
+  </si>
+  <si>
     <t>37.000000000</t>
   </si>
   <si>
-    <t>22.000000000</t>
-  </si>
-  <si>
-    <t>21.000000000</t>
-  </si>
-  <si>
-    <t>36.000000000</t>
-  </si>
-  <si>
-    <t>26.000000000</t>
+    <t>63.500000000</t>
+  </si>
+  <si>
+    <t>59.500000000</t>
   </si>
   <si>
     <t>14.000000000</t>
   </si>
   <si>
+    <t>19.000000000</t>
+  </si>
+  <si>
     <t>8.000000000</t>
   </si>
   <si>
     <t>7.000000000</t>
   </si>
   <si>
+    <t>10.500000000</t>
+  </si>
+  <si>
     <t>9.000000000</t>
   </si>
   <si>
@@ -199,64 +346,70 @@
     <t>5.000000000</t>
   </si>
   <si>
+    <t>18.000000000</t>
+  </si>
+  <si>
+    <t>10.000000000</t>
+  </si>
+  <si>
     <t>4.000000000</t>
   </si>
   <si>
-    <t>10.000000000</t>
-  </si>
-  <si>
     <t>12.000000000</t>
   </si>
   <si>
+    <t>11.000000000</t>
+  </si>
+  <si>
+    <t>17.000000000</t>
+  </si>
+  <si>
     <t>16.000000000</t>
   </si>
   <si>
-    <t>24.000000000</t>
-  </si>
-  <si>
-    <t>27.000000000</t>
+    <t>28.500000000</t>
+  </si>
+  <si>
+    <t>73.000000000</t>
   </si>
   <si>
     <t>18.500000000</t>
   </si>
   <si>
-    <t>29.000000000</t>
-  </si>
-  <si>
-    <t>19.000000000</t>
-  </si>
-  <si>
-    <t>23.000000000</t>
-  </si>
-  <si>
-    <t>28.000000000</t>
-  </si>
-  <si>
     <t>32.500000000</t>
   </si>
   <si>
-    <t>31.000000000</t>
-  </si>
-  <si>
-    <t>35.000000000</t>
-  </si>
-  <si>
-    <t>34.000000000</t>
+    <t>19.500000000</t>
+  </si>
+  <si>
+    <t>36.500000000</t>
+  </si>
+  <si>
+    <t>32.000000000</t>
+  </si>
+  <si>
+    <t>33.000000000</t>
+  </si>
+  <si>
+    <t>40.500000000</t>
   </si>
   <si>
     <t>66.500000000</t>
   </si>
   <si>
-    <t>80.000000000</t>
-  </si>
-  <si>
-    <t>73.000000000</t>
+    <t>33.500000000</t>
+  </si>
+  <si>
+    <t>41.500000000</t>
+  </si>
+  <si>
+    <t>53.500000000</t>
   </si>
   <si>
     <t>58.000000000</t>
   </si>
   <si>
-    <t>75.000000000</t>
+    <t>71.500000000</t>
   </si>
   <si>
     <t>88.000000000</t>
@@ -265,10 +418,16 @@
     <t>105.000000000</t>
   </si>
   <si>
-    <t>97.000000000</t>
+    <t>47.500000000</t>
   </si>
   <si>
     <t>88.500000000</t>
+  </si>
+  <si>
+    <t>70.500000000</t>
+  </si>
+  <si>
+    <t>62.500000000</t>
   </si>
 </sst>
 </file>
@@ -620,7 +779,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -713,17 +872,17 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -732,17 +891,17 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -751,17 +910,17 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -770,7 +929,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -780,7 +939,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -789,17 +948,17 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -808,17 +967,17 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -827,17 +986,17 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -846,17 +1005,17 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -865,17 +1024,17 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -884,17 +1043,17 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -903,17 +1062,17 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -922,17 +1081,17 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -941,7 +1100,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -951,7 +1110,7 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -960,7 +1119,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -970,7 +1129,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -979,17 +1138,17 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -998,17 +1157,17 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1017,17 +1176,17 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -1036,7 +1195,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1046,7 +1205,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -1055,17 +1214,17 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -1074,17 +1233,17 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -1093,17 +1252,17 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -1112,17 +1271,17 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1131,17 +1290,17 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -1150,17 +1309,17 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -1169,17 +1328,17 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -1188,17 +1347,17 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -1207,17 +1366,17 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -1226,7 +1385,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1236,7 +1395,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1245,17 +1404,17 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1264,17 +1423,17 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
@@ -1283,7 +1442,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1293,7 +1452,7 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -1302,17 +1461,17 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -1321,17 +1480,17 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
@@ -1340,7 +1499,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1350,7 +1509,7 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -1359,7 +1518,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1369,7 +1528,7 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
@@ -1378,17 +1537,17 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -1397,17 +1556,17 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
@@ -1416,17 +1575,17 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -1435,17 +1594,17 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
@@ -1454,17 +1613,17 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
@@ -1473,7 +1632,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -1483,7 +1642,7 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
@@ -1492,17 +1651,17 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -1511,17 +1670,17 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
@@ -1530,7 +1689,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -1540,7 +1699,7 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
@@ -1549,7 +1708,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -1559,7 +1718,7 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
@@ -1568,17 +1727,17 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
@@ -1587,17 +1746,17 @@
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -1606,17 +1765,17 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
@@ -1625,17 +1784,17 @@
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
@@ -1644,17 +1803,17 @@
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
@@ -1663,7 +1822,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -1673,7 +1832,7 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
@@ -1682,17 +1841,17 @@
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
@@ -1701,17 +1860,17 @@
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
@@ -1720,7 +1879,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -1730,7 +1889,7 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
@@ -1739,17 +1898,17 @@
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
@@ -1758,17 +1917,17 @@
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
@@ -1777,17 +1936,17 @@
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
@@ -1796,17 +1955,17 @@
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -1815,7 +1974,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -1825,7 +1984,7 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
@@ -1834,7 +1993,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -1844,7 +2003,7 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
@@ -1853,17 +2012,17 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
@@ -1872,17 +2031,17 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -1891,17 +2050,17 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
@@ -1910,17 +2069,17 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
@@ -1929,17 +2088,17 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
@@ -1948,7 +2107,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -1958,7 +2117,7 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -1967,17 +2126,17 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
@@ -1986,17 +2145,17 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -2005,17 +2164,17 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -2024,17 +2183,17 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
@@ -2043,17 +2202,17 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
@@ -2062,17 +2221,17 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
@@ -2081,17 +2240,17 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
@@ -2100,17 +2259,17 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -2119,17 +2278,17 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
@@ -2138,17 +2297,17 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
@@ -2157,17 +2316,17 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -2176,7 +2335,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -2186,7 +2345,7 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -2195,17 +2354,17 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
@@ -2214,7 +2373,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -2224,7 +2383,7 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -2233,7 +2392,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -2243,7 +2402,7 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
@@ -2252,17 +2411,17 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
@@ -2271,10 +2430,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2290,17 +2449,17 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -2309,7 +2468,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -2319,7 +2478,7 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
@@ -2328,17 +2487,17 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
@@ -2347,7 +2506,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
@@ -2357,7 +2516,7 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
@@ -2366,17 +2525,17 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
@@ -2385,17 +2544,17 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
@@ -2404,17 +2563,17 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
@@ -2423,17 +2582,17 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
@@ -2442,17 +2601,17 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
@@ -2461,17 +2620,17 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
@@ -2480,17 +2639,17 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
@@ -2499,17 +2658,17 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
@@ -2518,17 +2677,17 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
@@ -2537,7 +2696,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -2547,7 +2706,7 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
@@ -2556,7 +2715,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
@@ -2566,7 +2725,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -2575,7 +2734,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -2585,7 +2744,7 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
@@ -2594,17 +2753,17 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
@@ -2613,17 +2772,17 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -2632,7 +2791,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
@@ -2642,7 +2801,7 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
@@ -2651,7 +2810,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
@@ -2661,7 +2820,7 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
@@ -2670,17 +2829,17 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -2689,17 +2848,17 @@
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
@@ -2708,17 +2867,17 @@
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -2727,17 +2886,17 @@
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
@@ -2746,17 +2905,17 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
@@ -2765,7 +2924,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -2775,7 +2934,7 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
@@ -2784,17 +2943,17 @@
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
@@ -2803,17 +2962,17 @@
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
@@ -2822,17 +2981,17 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
@@ -2841,17 +3000,17 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
@@ -2860,17 +3019,17 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -2879,17 +3038,17 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -2898,17 +3057,17 @@
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
@@ -2917,7 +3076,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -2927,7 +3086,7 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
@@ -2936,7 +3095,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -2946,7 +3105,7 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
@@ -2955,7 +3114,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -2965,7 +3124,7 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
@@ -2974,17 +3133,17 @@
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
@@ -2993,17 +3152,17 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
@@ -3012,7 +3171,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -3022,7 +3181,7 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
@@ -3031,17 +3190,17 @@
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
@@ -3050,17 +3209,17 @@
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
@@ -3069,7 +3228,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -3079,7 +3238,7 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
@@ -3088,17 +3247,17 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
@@ -3107,7 +3266,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -3117,7 +3276,7 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
@@ -3126,7 +3285,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -3136,7 +3295,7 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
@@ -3145,17 +3304,17 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -3164,17 +3323,17 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
@@ -3183,17 +3342,17 @@
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
@@ -3202,17 +3361,17 @@
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
@@ -3221,17 +3380,17 @@
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
@@ -3240,7 +3399,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -3250,7 +3409,7 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
@@ -3259,17 +3418,17 @@
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
@@ -3278,7 +3437,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -3288,7 +3447,7 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
@@ -3297,17 +3456,17 @@
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
@@ -3316,17 +3475,17 @@
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
@@ -3335,17 +3494,17 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
@@ -3354,17 +3513,17 @@
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
@@ -3373,7 +3532,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -3383,7 +3542,7 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
@@ -3392,7 +3551,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -3402,7 +3561,7 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
@@ -3411,17 +3570,17 @@
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
@@ -3430,7 +3589,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -3440,7 +3599,7 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
@@ -3449,17 +3608,17 @@
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
       <c r="F148"/>
       <c r="G148" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
@@ -3468,17 +3627,17 @@
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
@@ -3487,17 +3646,17 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
@@ -3506,17 +3665,17 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
@@ -3525,17 +3684,17 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
@@ -3544,17 +3703,17 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
@@ -3563,17 +3722,17 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
@@ -3582,7 +3741,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
@@ -3592,7 +3751,7 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
@@ -3601,7 +3760,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -3611,7 +3770,7 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
@@ -3620,17 +3779,17 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
@@ -3639,17 +3798,17 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -3658,17 +3817,17 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
@@ -3677,7 +3836,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -3687,7 +3846,7 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -3696,7 +3855,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
@@ -3706,7 +3865,7 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
@@ -3715,17 +3874,17 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="H162"/>
       <c r="I162"/>
@@ -3734,7 +3893,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
@@ -3744,7 +3903,7 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -3753,17 +3912,17 @@
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="H164"/>
       <c r="I164"/>
@@ -3772,7 +3931,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -3782,7 +3941,7 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="H165"/>
       <c r="I165"/>
@@ -3791,7 +3950,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -3801,7 +3960,7 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="H166"/>
       <c r="I166"/>
@@ -3810,17 +3969,17 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H167"/>
       <c r="I167"/>
@@ -3829,17 +3988,17 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H168"/>
       <c r="I168"/>
@@ -3848,17 +4007,17 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H169"/>
       <c r="I169"/>
@@ -3867,17 +4026,17 @@
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170"/>
       <c r="G170" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="H170"/>
       <c r="I170"/>
@@ -3886,7 +4045,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -3896,7 +4055,7 @@
       <c r="E171"/>
       <c r="F171"/>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="H171"/>
       <c r="I171"/>
@@ -3905,7 +4064,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -3915,7 +4074,7 @@
       <c r="E172"/>
       <c r="F172"/>
       <c r="G172" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H172"/>
       <c r="I172"/>
@@ -3924,17 +4083,17 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H173"/>
       <c r="I173"/>
@@ -3943,17 +4102,17 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
       <c r="F174"/>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H174"/>
       <c r="I174"/>
@@ -3962,17 +4121,17 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
       <c r="F175"/>
       <c r="G175" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="H175"/>
       <c r="I175"/>
@@ -3981,7 +4140,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
@@ -3991,7 +4150,7 @@
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H176"/>
       <c r="I176"/>
@@ -4000,7 +4159,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -4010,7 +4169,7 @@
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="H177"/>
       <c r="I177"/>
@@ -4019,17 +4178,17 @@
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
       <c r="F178"/>
       <c r="G178" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="H178"/>
       <c r="I178"/>
@@ -4038,17 +4197,17 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="H179"/>
       <c r="I179"/>
@@ -4057,17 +4216,17 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
       <c r="F180"/>
       <c r="G180" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H180"/>
       <c r="I180"/>
@@ -4076,17 +4235,17 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
       <c r="F181"/>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="H181"/>
       <c r="I181"/>
@@ -4095,17 +4254,17 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
       <c r="F182"/>
       <c r="G182" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="H182"/>
       <c r="I182"/>
@@ -4114,17 +4273,17 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183"/>
       <c r="G183" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="H183"/>
       <c r="I183"/>
@@ -4133,17 +4292,17 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
       <c r="F184"/>
       <c r="G184" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H184"/>
       <c r="I184"/>
@@ -4152,7 +4311,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
@@ -4162,7 +4321,7 @@
       <c r="E185"/>
       <c r="F185"/>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="H185"/>
       <c r="I185"/>
@@ -4171,17 +4330,17 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
       <c r="F186"/>
       <c r="G186" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H186"/>
       <c r="I186"/>
@@ -4190,17 +4349,17 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187"/>
       <c r="G187" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H187"/>
       <c r="I187"/>
@@ -4209,7 +4368,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -4219,7 +4378,7 @@
       <c r="E188"/>
       <c r="F188"/>
       <c r="G188" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H188"/>
       <c r="I188"/>
@@ -4228,7 +4387,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B189" t="s">
         <v>13</v>
@@ -4238,7 +4397,7 @@
       <c r="E189"/>
       <c r="F189"/>
       <c r="G189" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H189"/>
       <c r="I189"/>
@@ -4247,17 +4406,17 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
       <c r="F190"/>
       <c r="G190" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H190"/>
       <c r="I190"/>
@@ -4266,17 +4425,17 @@
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
       <c r="F191"/>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="H191"/>
       <c r="I191"/>
@@ -4285,17 +4444,17 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
       <c r="F192"/>
       <c r="G192" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H192"/>
       <c r="I192"/>
@@ -4304,22 +4463,3670 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
       <c r="F193"/>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="H193"/>
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194" t="s">
+        <v>107</v>
+      </c>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195" t="s">
+        <v>108</v>
+      </c>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196" t="s">
+        <v>109</v>
+      </c>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197" t="s">
+        <v>85</v>
+      </c>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198" t="s">
+        <v>109</v>
+      </c>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200" t="s">
+        <v>104</v>
+      </c>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201" t="s">
+        <v>111</v>
+      </c>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202" t="s">
+        <v>112</v>
+      </c>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203" t="s">
+        <v>105</v>
+      </c>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204" t="s">
+        <v>52</v>
+      </c>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205" t="s">
+        <v>105</v>
+      </c>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206" t="s">
+        <v>108</v>
+      </c>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207" t="s">
+        <v>65</v>
+      </c>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208" t="s">
+        <v>112</v>
+      </c>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B209" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209" t="s">
+        <v>105</v>
+      </c>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210" t="s">
+        <v>113</v>
+      </c>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211" t="s">
+        <v>84</v>
+      </c>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212" t="s">
+        <v>108</v>
+      </c>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213" t="s">
+        <v>105</v>
+      </c>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214" t="s">
+        <v>57</v>
+      </c>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215" t="s">
+        <v>107</v>
+      </c>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216" t="s">
+        <v>105</v>
+      </c>
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217" t="s">
+        <v>104</v>
+      </c>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218" t="s">
+        <v>111</v>
+      </c>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219" t="s">
+        <v>113</v>
+      </c>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220" t="s">
+        <v>114</v>
+      </c>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222" t="s">
+        <v>102</v>
+      </c>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B223" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223" t="s">
+        <v>115</v>
+      </c>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224" t="s">
+        <v>116</v>
+      </c>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225" t="s">
+        <v>68</v>
+      </c>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227" t="s">
+        <v>72</v>
+      </c>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228" t="s">
+        <v>97</v>
+      </c>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229" t="s">
+        <v>77</v>
+      </c>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231" t="s">
+        <v>42</v>
+      </c>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B233" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233" t="s">
+        <v>54</v>
+      </c>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
+      <c r="G234" t="s">
+        <v>57</v>
+      </c>
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235" t="s">
+        <v>87</v>
+      </c>
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236" t="s">
+        <v>116</v>
+      </c>
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237" t="s">
+        <v>57</v>
+      </c>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239" t="s">
+        <v>117</v>
+      </c>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240" t="s">
+        <v>116</v>
+      </c>
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242" t="s">
+        <v>72</v>
+      </c>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243" t="s">
+        <v>77</v>
+      </c>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244" t="s">
+        <v>118</v>
+      </c>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245" t="s">
+        <v>27</v>
+      </c>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246" t="s">
+        <v>59</v>
+      </c>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247" t="s">
+        <v>27</v>
+      </c>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248" t="s">
+        <v>35</v>
+      </c>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249" t="s">
+        <v>119</v>
+      </c>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250" t="s">
+        <v>103</v>
+      </c>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251" t="s">
+        <v>36</v>
+      </c>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252" t="s">
+        <v>57</v>
+      </c>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253" t="s">
+        <v>103</v>
+      </c>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254" t="s">
+        <v>57</v>
+      </c>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255" t="s">
+        <v>27</v>
+      </c>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256" t="s">
+        <v>12</v>
+      </c>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B257" t="s">
+        <v>17</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257" t="s">
+        <v>114</v>
+      </c>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258" t="s">
+        <v>115</v>
+      </c>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259" t="s">
+        <v>81</v>
+      </c>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260" t="s">
+        <v>57</v>
+      </c>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261" t="s">
+        <v>51</v>
+      </c>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262" t="s">
+        <v>35</v>
+      </c>
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263" t="s">
+        <v>38</v>
+      </c>
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
+      <c r="G264" t="s">
+        <v>113</v>
+      </c>
+      <c r="H264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265" t="s">
+        <v>31</v>
+      </c>
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266" t="s">
+        <v>31</v>
+      </c>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267" t="s">
+        <v>84</v>
+      </c>
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268" t="s">
+        <v>72</v>
+      </c>
+      <c r="H268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269" t="s">
+        <v>120</v>
+      </c>
+      <c r="H269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270" t="s">
+        <v>54</v>
+      </c>
+      <c r="H270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271" t="s">
+        <v>39</v>
+      </c>
+      <c r="H271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272" t="s">
+        <v>113</v>
+      </c>
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273" t="s">
+        <v>75</v>
+      </c>
+      <c r="H273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274" t="s">
+        <v>99</v>
+      </c>
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275" t="s">
+        <v>35</v>
+      </c>
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276" t="s">
+        <v>40</v>
+      </c>
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B277" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277" t="s">
+        <v>116</v>
+      </c>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278" t="s">
+        <v>110</v>
+      </c>
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279" t="s">
+        <v>54</v>
+      </c>
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280" t="s">
+        <v>31</v>
+      </c>
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281" t="s">
+        <v>54</v>
+      </c>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B282" t="s">
+        <v>17</v>
+      </c>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282" t="s">
+        <v>121</v>
+      </c>
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283"/>
+      <c r="G283" t="s">
+        <v>84</v>
+      </c>
+      <c r="H283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="G284" t="s">
+        <v>91</v>
+      </c>
+      <c r="H284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285"/>
+      <c r="G285" t="s">
+        <v>54</v>
+      </c>
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286"/>
+      <c r="G286" t="s">
+        <v>91</v>
+      </c>
+      <c r="H286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287"/>
+      <c r="G287" t="s">
+        <v>68</v>
+      </c>
+      <c r="H287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288" t="s">
+        <v>75</v>
+      </c>
+      <c r="H288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289" t="s">
+        <v>122</v>
+      </c>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B292" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292" t="s">
+        <v>77</v>
+      </c>
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
+      <c r="G293" t="s">
+        <v>49</v>
+      </c>
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294" t="s">
+        <v>28</v>
+      </c>
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295" t="s">
+        <v>26</v>
+      </c>
+      <c r="H295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297" t="s">
+        <v>54</v>
+      </c>
+      <c r="H297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298"/>
+      <c r="G298" t="s">
+        <v>123</v>
+      </c>
+      <c r="H298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299"/>
+      <c r="G299" t="s">
+        <v>124</v>
+      </c>
+      <c r="H299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300" t="s">
+        <v>16</v>
+      </c>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301"/>
+      <c r="G301" t="s">
+        <v>81</v>
+      </c>
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302"/>
+      <c r="G302" t="s">
+        <v>75</v>
+      </c>
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303" t="s">
+        <v>45</v>
+      </c>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304" t="s">
+        <v>45</v>
+      </c>
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305" t="s">
+        <v>125</v>
+      </c>
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306" t="s">
+        <v>65</v>
+      </c>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307" t="s">
+        <v>35</v>
+      </c>
+      <c r="H307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308" t="s">
+        <v>81</v>
+      </c>
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309" t="s">
+        <v>52</v>
+      </c>
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310" t="s">
+        <v>22</v>
+      </c>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311" t="s">
+        <v>55</v>
+      </c>
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B312" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B313" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313"/>
+      <c r="G313" t="s">
+        <v>65</v>
+      </c>
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
+      <c r="G314" t="s">
+        <v>97</v>
+      </c>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315" t="s">
+        <v>75</v>
+      </c>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316" t="s">
+        <v>126</v>
+      </c>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317" t="s">
+        <v>31</v>
+      </c>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>17</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318" t="s">
+        <v>127</v>
+      </c>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319" t="s">
+        <v>28</v>
+      </c>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B320" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320" t="s">
+        <v>75</v>
+      </c>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321" t="s">
+        <v>21</v>
+      </c>
+      <c r="H321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322" t="s">
+        <v>77</v>
+      </c>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323" t="s">
+        <v>66</v>
+      </c>
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B324" t="s">
+        <v>17</v>
+      </c>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324" t="s">
+        <v>77</v>
+      </c>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325" t="s">
+        <v>76</v>
+      </c>
+      <c r="H325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326" t="s">
+        <v>118</v>
+      </c>
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327" t="s">
+        <v>24</v>
+      </c>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328" t="s">
+        <v>54</v>
+      </c>
+      <c r="H328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329" t="s">
+        <v>115</v>
+      </c>
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B330" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330" t="s">
+        <v>128</v>
+      </c>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331"/>
+      <c r="G331" t="s">
+        <v>24</v>
+      </c>
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B332" t="s">
+        <v>17</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332" t="s">
+        <v>129</v>
+      </c>
+      <c r="H332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B333" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333"/>
+      <c r="G333" t="s">
+        <v>87</v>
+      </c>
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334" t="s">
+        <v>81</v>
+      </c>
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335"/>
+      <c r="G335" t="s">
+        <v>12</v>
+      </c>
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B336" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336" t="s">
+        <v>20</v>
+      </c>
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B337" t="s">
+        <v>17</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+      <c r="G337" t="s">
+        <v>65</v>
+      </c>
+      <c r="H337"/>
+      <c r="I337"/>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338"/>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339"/>
+      <c r="G339" t="s">
+        <v>28</v>
+      </c>
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340"/>
+      <c r="G340" t="s">
+        <v>120</v>
+      </c>
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B341" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341"/>
+      <c r="G341" t="s">
+        <v>41</v>
+      </c>
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+      <c r="G342" t="s">
+        <v>130</v>
+      </c>
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
+      <c r="G343" t="s">
+        <v>65</v>
+      </c>
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344"/>
+      <c r="G344" t="s">
+        <v>39</v>
+      </c>
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B345" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345"/>
+      <c r="G345" t="s">
+        <v>52</v>
+      </c>
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B346" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346"/>
+      <c r="G346" t="s">
+        <v>64</v>
+      </c>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347"/>
+      <c r="G347" t="s">
+        <v>34</v>
+      </c>
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348" t="s">
+        <v>26</v>
+      </c>
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B349" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349"/>
+      <c r="G349" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
+      <c r="G350" t="s">
+        <v>59</v>
+      </c>
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B351" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351"/>
+      <c r="G351" t="s">
+        <v>52</v>
+      </c>
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352"/>
+      <c r="G352" t="s">
+        <v>87</v>
+      </c>
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B353" t="s">
+        <v>17</v>
+      </c>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353"/>
+      <c r="G353" t="s">
+        <v>65</v>
+      </c>
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B354" t="s">
+        <v>15</v>
+      </c>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354"/>
+      <c r="F354"/>
+      <c r="G354" t="s">
+        <v>39</v>
+      </c>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355"/>
+      <c r="G355" t="s">
+        <v>47</v>
+      </c>
+      <c r="H355"/>
+      <c r="I355"/>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B356" t="s">
+        <v>17</v>
+      </c>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356"/>
+      <c r="G356" t="s">
+        <v>45</v>
+      </c>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357" t="s">
+        <v>26</v>
+      </c>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358" t="s">
+        <v>48</v>
+      </c>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>13</v>
+      </c>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359" t="s">
+        <v>59</v>
+      </c>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B360" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360" t="s">
+        <v>40</v>
+      </c>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361" t="s">
+        <v>63</v>
+      </c>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362" t="s">
+        <v>34</v>
+      </c>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B363" t="s">
+        <v>17</v>
+      </c>
+      <c r="C363"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363"/>
+      <c r="G363" t="s">
+        <v>131</v>
+      </c>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364" t="s">
+        <v>132</v>
+      </c>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365" t="s">
+        <v>81</v>
+      </c>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366"/>
+      <c r="G366" t="s">
+        <v>133</v>
+      </c>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+      <c r="C367"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367" t="s">
+        <v>130</v>
+      </c>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B368" t="s">
+        <v>17</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368" t="s">
+        <v>32</v>
+      </c>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369" t="s">
+        <v>55</v>
+      </c>
+      <c r="H369"/>
+      <c r="I369"/>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B370" t="s">
+        <v>17</v>
+      </c>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370" t="s">
+        <v>20</v>
+      </c>
+      <c r="H370"/>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371" t="s">
+        <v>41</v>
+      </c>
+      <c r="H371"/>
+      <c r="I371"/>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372" t="s">
+        <v>70</v>
+      </c>
+      <c r="H372"/>
+      <c r="I372"/>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373"/>
+      <c r="G373" t="s">
+        <v>134</v>
+      </c>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374"/>
+      <c r="G374" t="s">
+        <v>135</v>
+      </c>
+      <c r="H374"/>
+      <c r="I374"/>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B375" t="s">
+        <v>17</v>
+      </c>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375"/>
+      <c r="G375" t="s">
+        <v>93</v>
+      </c>
+      <c r="H375"/>
+      <c r="I375"/>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376"/>
+      <c r="G376" t="s">
+        <v>41</v>
+      </c>
+      <c r="H376"/>
+      <c r="I376"/>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377"/>
+      <c r="G377" t="s">
+        <v>136</v>
+      </c>
+      <c r="H377"/>
+      <c r="I377"/>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378"/>
+      <c r="G378" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378"/>
+      <c r="I378"/>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379"/>
+      <c r="G379" t="s">
+        <v>34</v>
+      </c>
+      <c r="H379"/>
+      <c r="I379"/>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B380" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380"/>
+      <c r="G380" t="s">
+        <v>63</v>
+      </c>
+      <c r="H380"/>
+      <c r="I380"/>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B381" t="s">
+        <v>17</v>
+      </c>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381"/>
+      <c r="G381" t="s">
+        <v>54</v>
+      </c>
+      <c r="H381"/>
+      <c r="I381"/>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382"/>
+      <c r="G382" t="s">
+        <v>24</v>
+      </c>
+      <c r="H382"/>
+      <c r="I382"/>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>17</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383" t="s">
+        <v>59</v>
+      </c>
+      <c r="H383"/>
+      <c r="I383"/>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B384" t="s">
+        <v>13</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384" t="s">
+        <v>137</v>
+      </c>
+      <c r="H384"/>
+      <c r="I384"/>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385"/>
+      <c r="G385" t="s">
+        <v>63</v>
+      </c>
+      <c r="H385"/>
+      <c r="I385"/>
+      <c r="J385"/>
+      <c r="K385"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
